--- a/kin523_biomech_mot_activities/hw4/table_prb234.xlsx
+++ b/kin523_biomech_mot_activities/hw4/table_prb234.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonyle/MATLAB/osu_coursework/kin523_biomech_mot_activities/hw4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\MATLAB\osu_coursework\kin523_biomech_mot_activities\hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="5940" windowWidth="28040" windowHeight="17440" xr2:uid="{64F6198C-02E6-9349-9A94-CFEA337D4371}"/>
+    <workbookView xWindow="11880" yWindow="5940" windowWidth="28035" windowHeight="17445" xr2:uid="{64F6198C-02E6-9349-9A94-CFEA337D4371}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,13 +394,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CFF532-8C78-0F49-A1D1-FACC983BFB29}">
   <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection sqref="A1:H289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="E1">
-        <v>-6.7521882404944805E-2</v>
+        <v>6.7521882404944805E-2</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-6.7521882404944805E-2</v>
+        <v>6.7521882404944805E-2</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-6.7521882404944805E-2</v>
+        <v>6.7521882404944805E-2</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-6.7521882404944805E-2</v>
+        <v>6.7521882404944805E-2</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-6.7521882404944805E-2</v>
+        <v>6.7521882404944805E-2</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-6.7521882404944805E-2</v>
+        <v>6.7521882404944805E-2</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-6.7521882404939504E-2</v>
+        <v>6.7521882404939504E-2</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-0.104991999084948</v>
+        <v>0.104991999084948</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-0.104991999084948</v>
+        <v>0.104991999084948</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-6.7521882404939504E-2</v>
+        <v>6.7521882404939504E-2</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-0.104991999084948</v>
+        <v>0.104991999084948</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-6.7521882404939504E-2</v>
+        <v>6.7521882404939504E-2</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-0.104991999084948</v>
+        <v>0.104991999084948</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-0.104991999084948</v>
+        <v>0.104991999084948</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-0.104991999084948</v>
+        <v>0.104991999084948</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-0.104991999084948</v>
+        <v>0.104991999084948</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-0.142471487998341</v>
+        <v>0.142471487998341</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>-0.149607870374492</v>
+        <v>0.149607870374492</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-0.17996032057497599</v>
+        <v>0.17996032057497599</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.21745846819845499</v>
+        <v>0.21745846819845499</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-0.224547577138591</v>
+        <v>0.224547577138591</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.25496590220623899</v>
+        <v>0.25496590220623899</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.21745846819845499</v>
+        <v>0.21745846819845499</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-0.25496590220623699</v>
+        <v>0.25496590220623699</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-0.25496590220623699</v>
+        <v>0.25496590220623699</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.25496590220623699</v>
+        <v>0.25496590220623699</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.25496590220623699</v>
+        <v>0.25496590220623699</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-0.25496590220623699</v>
+        <v>0.25496590220623699</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-0.292482593889757</v>
+        <v>0.292482593889757</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.292482593889757</v>
+        <v>0.292482593889757</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-0.33000851449451202</v>
+        <v>0.33000851449451202</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>-0.29952435741539002</v>
+        <v>0.29952435741539002</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-0.33000851449450902</v>
+        <v>0.33000851449450902</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>-0.37453798175064201</v>
+        <v>0.37453798175064201</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>-0.37453798175064201</v>
+        <v>0.37453798175064201</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>-0.37453798175064201</v>
+        <v>0.37453798175064201</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>-0.41205853853580798</v>
+        <v>0.41205853853580798</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>-0.41205853853580798</v>
+        <v>0.41205853853580798</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>-0.41205853853580798</v>
+        <v>0.41205853853580798</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>-0.44958821995929399</v>
+        <v>0.44958821995929399</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>-0.44958821995929399</v>
+        <v>0.44958821995929399</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>-0.48712699713434698</v>
+        <v>0.48712699713434698</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>-0.48712699713434998</v>
+        <v>0.48712699713434998</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>-0.49404101800709199</v>
+        <v>0.49404101800709199</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>-0.524674841128975</v>
+        <v>0.524674841128975</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>-0.53156510267990797</v>
+        <v>0.53156510267990797</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-0.56909820764682295</v>
+        <v>0.56909820764682295</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>-0.56909820764682295</v>
+        <v>0.56909820764682295</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>-0.56909820764682295</v>
+        <v>0.56909820764682295</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>-0.59979761362349804</v>
+        <v>0.59979761362349804</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>-0.60664030393639301</v>
+        <v>0.60664030393639301</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>-0.64419136253240905</v>
+        <v>0.64419136253240905</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>-0.68175135437401801</v>
+        <v>0.68175135437401801</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>-0.68175135437402401</v>
+        <v>0.68175135437402401</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>-0.71932025035582503</v>
+        <v>0.71932025035582503</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-0.71932025035582503</v>
+        <v>0.71932025035582503</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>-0.756898021327993</v>
+        <v>0.756898021327993</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>-0.756898021327993</v>
+        <v>0.756898021327993</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>-0.79448463809638903</v>
+        <v>0.79448463809638903</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>-0.79448463809638903</v>
+        <v>0.79448463809638903</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>-0.79448463809638903</v>
+        <v>0.79448463809638903</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>-0.79448463809638903</v>
+        <v>0.79448463809638903</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>-0.79448463809638903</v>
+        <v>0.79448463809638903</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>-0.79448463809638903</v>
+        <v>0.79448463809638903</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>-0.83208007142267204</v>
+        <v>0.83208007142267204</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-0.83208007142267204</v>
+        <v>0.83208007142267204</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>-0.83208007142267204</v>
+        <v>0.83208007142267204</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-0.83208007142267204</v>
+        <v>0.83208007142267204</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>-0.83208007142267204</v>
+        <v>0.83208007142267204</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>-0.83208007142267204</v>
+        <v>0.83208007142267204</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>-0.83208007142267204</v>
+        <v>0.83208007142267204</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>-0.869684292024415</v>
+        <v>0.869684292024415</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>-0.87635117815888297</v>
+        <v>0.87635117815888297</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>-0.87635117815888297</v>
+        <v>0.87635117815888297</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>-0.87635117815888297</v>
+        <v>0.87635117815888297</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>-0.87635117815888297</v>
+        <v>0.87635117815888297</v>
       </c>
       <c r="F76" t="s">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>-0.83877084365104804</v>
+        <v>0.83877084365104804</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>-0.83877084365104804</v>
+        <v>0.83877084365104804</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>-0.87635117815888297</v>
+        <v>0.87635117815888297</v>
       </c>
       <c r="F79" t="s">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>-0.87635117815888297</v>
+        <v>0.87635117815888297</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>-0.88300932338020199</v>
+        <v>0.88300932338020199</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>-0.88300932338020199</v>
+        <v>0.88300932338020199</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>-0.95153804057374103</v>
+        <v>0.95153804057374103</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>-0.95814842120995403</v>
+        <v>0.95814842120995403</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>-0.995730982774232</v>
+        <v>0.995730982774232</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>-1.03332218031458</v>
+        <v>1.03332218031458</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>-1.0774520144573301</v>
+        <v>1.0774520144573301</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>-1.1150364671619499</v>
+        <v>1.1150364671619499</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>-1.15262945087906</v>
+        <v>1.15262945087906</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>-1.19023093613539</v>
+        <v>1.19023093613539</v>
       </c>
       <c r="F90" t="s">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>-1.2718611016220001</v>
+        <v>1.2718611016220001</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>-1.38469466564342</v>
+        <v>1.38469466564342</v>
       </c>
       <c r="F92" t="s">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>-1.54148099207458</v>
+        <v>1.54148099207458</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>-1.84280099468267</v>
+        <v>1.84280099468267</v>
       </c>
       <c r="F94" t="s">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>-2.1504594748463899</v>
+        <v>2.1504594748463899</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>-2.5771087824130299</v>
+        <v>2.5771087824130299</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>-3.07393629748332</v>
+        <v>3.07393629748332</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>-3.65193712868551</v>
+        <v>3.65193712868551</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>-4.1495170549802296</v>
+        <v>4.1495170549802296</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>-4.6474564827283302</v>
+        <v>4.6474564827283302</v>
       </c>
       <c r="F100" t="s">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>-5.0696155467535098</v>
+        <v>5.0696155467535098</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>-5.4157419045824797</v>
+        <v>5.4157419045824797</v>
       </c>
       <c r="F102" t="s">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>-5.68219258543885</v>
+        <v>5.68219258543885</v>
       </c>
       <c r="F103" t="s">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>-5.8345530949746296</v>
+        <v>5.8345530949746296</v>
       </c>
       <c r="F104" t="s">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>-5.9869858714949604</v>
+        <v>5.9869858714949604</v>
       </c>
       <c r="F105" t="s">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>-6.1776252557420497</v>
+        <v>6.1776252557420497</v>
       </c>
       <c r="F106" t="s">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>-6.3302129168966497</v>
+        <v>6.3302129168966497</v>
       </c>
       <c r="F107" t="s">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>-6.5973974012872603</v>
+        <v>6.5973974012872603</v>
       </c>
       <c r="F108" t="s">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>-6.9029816891484304</v>
+        <v>6.9029816891484304</v>
       </c>
       <c r="F109" t="s">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>-7.2494966409074904</v>
+        <v>7.2494966409074904</v>
       </c>
       <c r="F110" t="s">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>-7.7104930426223603</v>
+        <v>7.7104930426223603</v>
       </c>
       <c r="F111" t="s">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>-8.24776674539482</v>
+        <v>8.24776674539482</v>
       </c>
       <c r="F112" t="s">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>-8.8599071058809198</v>
+        <v>8.8599071058809198</v>
       </c>
       <c r="F113" t="s">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>-9.5500449335739592</v>
+        <v>9.5500449335739592</v>
       </c>
       <c r="F114" t="s">
         <v>0</v>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>-10.3540838096107</v>
+        <v>10.3540838096107</v>
       </c>
       <c r="F115" t="s">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>-11.196647594842601</v>
+        <v>11.196647594842601</v>
       </c>
       <c r="F116" t="s">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>-12.1922268780748</v>
+        <v>12.1922268780748</v>
       </c>
       <c r="F117" t="s">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>-13.341597602252101</v>
+        <v>13.341597602252101</v>
       </c>
       <c r="F118" t="s">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>-14.681535407945001</v>
+        <v>14.681535407945001</v>
       </c>
       <c r="F119" t="s">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>-16.258171766689902</v>
+        <v>16.258171766689902</v>
       </c>
       <c r="F120" t="s">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>-18.138973397034899</v>
+        <v>18.138973397034899</v>
       </c>
       <c r="F121" t="s">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>-20.3783033989159</v>
+        <v>20.3783033989159</v>
       </c>
       <c r="F122" t="s">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>-23.175466255974602</v>
+        <v>23.175466255974602</v>
       </c>
       <c r="F123" t="s">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>-26.595817560043098</v>
+        <v>26.595817560043098</v>
       </c>
       <c r="F124" t="s">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>-30.546433734534901</v>
+        <v>30.546433734534901</v>
       </c>
       <c r="F125" t="s">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>-34.422558720706</v>
+        <v>34.422558720706</v>
       </c>
       <c r="F126" t="s">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>-37.288917671048999</v>
+        <v>37.288917671048999</v>
       </c>
       <c r="F127" t="s">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>-38.500487539619797</v>
+        <v>38.500487539619797</v>
       </c>
       <c r="F128" t="s">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>-38.264354248886498</v>
+        <v>38.264354248886498</v>
       </c>
       <c r="F129" t="s">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>-37.942568667350699</v>
+        <v>37.942568667350699</v>
       </c>
       <c r="F130" t="s">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>-38.732523051788299</v>
+        <v>38.732523051788299</v>
       </c>
       <c r="F131" t="s">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>-40.683151712720097</v>
+        <v>40.683151712720097</v>
       </c>
       <c r="F132" t="s">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>-42.748006833727104</v>
+        <v>42.748006833727104</v>
       </c>
       <c r="F133" t="s">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>-44.072250090739701</v>
+        <v>44.072250090739701</v>
       </c>
       <c r="F134" t="s">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>-44.618621852396302</v>
+        <v>44.618621852396302</v>
       </c>
       <c r="F135" t="s">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>-44.448636726762302</v>
+        <v>44.448636726762302</v>
       </c>
       <c r="F136" t="s">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>-43.778910812724199</v>
+        <v>43.778910812724199</v>
       </c>
       <c r="F137" t="s">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>-42.966522036290698</v>
+        <v>42.966522036290698</v>
       </c>
       <c r="F138" t="s">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>-42.275864133095901</v>
+        <v>42.275864133095901</v>
       </c>
       <c r="F139" t="s">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>-41.786207684383903</v>
+        <v>41.786207684383903</v>
       </c>
       <c r="F140" t="s">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>-41.519920135061497</v>
+        <v>41.519920135061497</v>
       </c>
       <c r="F141" t="s">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>-41.399999741497297</v>
+        <v>41.399999741497297</v>
       </c>
       <c r="F142" t="s">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>-41.386224619824702</v>
+        <v>41.386224619824702</v>
       </c>
       <c r="F143" t="s">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>-41.252161188966497</v>
+        <v>41.252161188966497</v>
       </c>
       <c r="F144" t="s">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>-41.0840644493301</v>
+        <v>41.0840644493301</v>
       </c>
       <c r="F145" t="s">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>-40.775040935679698</v>
+        <v>40.775040935679698</v>
       </c>
       <c r="F146" t="s">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>-40.397044788922798</v>
+        <v>40.397044788922798</v>
       </c>
       <c r="F147" t="s">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>-40.055544836262698</v>
+        <v>40.055544836262698</v>
       </c>
       <c r="F148" t="s">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>-39.7083606308138</v>
+        <v>39.7083606308138</v>
       </c>
       <c r="F149" t="s">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>-39.482487618217299</v>
+        <v>39.482487618217299</v>
       </c>
       <c r="F150" t="s">
         <v>0</v>
@@ -4300,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>-39.378698135165997</v>
+        <v>39.378698135165997</v>
       </c>
       <c r="F151" t="s">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>-39.325318569984603</v>
+        <v>39.325318569984603</v>
       </c>
       <c r="F152" t="s">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>-39.357083408606798</v>
+        <v>39.357083408606798</v>
       </c>
       <c r="F153" t="s">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>-39.426165464353403</v>
+        <v>39.426165464353403</v>
       </c>
       <c r="F154" t="s">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>-39.510846516876498</v>
+        <v>39.510846516876498</v>
       </c>
       <c r="F155" t="s">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>-39.564058588978497</v>
+        <v>39.564058588978497</v>
       </c>
       <c r="F156" t="s">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>-39.617299700227399</v>
+        <v>39.617299700227399</v>
       </c>
       <c r="F157" t="s">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>-39.7049702620291</v>
+        <v>39.7049702620291</v>
       </c>
       <c r="F158" t="s">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>-39.792630464856501</v>
+        <v>39.792630464856501</v>
       </c>
       <c r="F159" t="s">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>-39.8992812463066</v>
+        <v>39.8992812463066</v>
       </c>
       <c r="F160" t="s">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>-40.021269221731004</v>
+        <v>40.021269221731004</v>
       </c>
       <c r="F161" t="s">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>-40.036463893446196</v>
+        <v>40.036463893446196</v>
       </c>
       <c r="F162" t="s">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>-40.070702563093803</v>
+        <v>40.070702563093803</v>
       </c>
       <c r="F163" t="s">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>-39.998370367128402</v>
+        <v>39.998370367128402</v>
       </c>
       <c r="F164" t="s">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>-39.819858110789603</v>
+        <v>39.819858110789603</v>
       </c>
       <c r="F165" t="s">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>-39.607590595797198</v>
+        <v>39.607590595797198</v>
       </c>
       <c r="F166" t="s">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>-39.342902940922798</v>
+        <v>39.342902940922798</v>
       </c>
       <c r="F167" t="s">
         <v>0</v>
@@ -4742,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>-39.026237293852503</v>
+        <v>39.026237293852503</v>
       </c>
       <c r="F168" t="s">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>-38.710631712276303</v>
+        <v>38.710631712276303</v>
       </c>
       <c r="F169" t="s">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>-38.448446757366703</v>
+        <v>38.448446757366703</v>
       </c>
       <c r="F170" t="s">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>-38.221461912966902</v>
+        <v>38.221461912966902</v>
       </c>
       <c r="F171" t="s">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>-38.117114161138502</v>
+        <v>38.117114161138502</v>
       </c>
       <c r="F172" t="s">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>-38.012888380083702</v>
+        <v>38.012888380083702</v>
       </c>
       <c r="F173" t="s">
         <v>0</v>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>-37.908785044639401</v>
+        <v>37.908785044639401</v>
       </c>
       <c r="F174" t="s">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>-37.770311010623203</v>
+        <v>37.770311010623203</v>
       </c>
       <c r="F175" t="s">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>-37.614738049263003</v>
+        <v>37.614738049263003</v>
       </c>
       <c r="F176" t="s">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>-37.441691492168196</v>
+        <v>37.441691492168196</v>
       </c>
       <c r="F177" t="s">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>-37.337722570212001</v>
+        <v>37.337722570212001</v>
       </c>
       <c r="F178" t="s">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>-37.510925871622703</v>
+        <v>37.510925871622703</v>
       </c>
       <c r="F179" t="s">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>-37.996035202904203</v>
+        <v>37.996035202904203</v>
       </c>
       <c r="F180" t="s">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>-38.324673663445303</v>
+        <v>38.324673663445303</v>
       </c>
       <c r="F181" t="s">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>-36.991327679524701</v>
+        <v>36.991327679524701</v>
       </c>
       <c r="F182" t="s">
         <v>0</v>
@@ -5132,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>-32.528371049980102</v>
+        <v>32.528371049980102</v>
       </c>
       <c r="F183" t="s">
         <v>0</v>
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <v>-25.011892785802601</v>
+        <v>25.011892785802601</v>
       </c>
       <c r="F184" t="s">
         <v>0</v>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>-16.770683796196899</v>
+        <v>16.770683796196899</v>
       </c>
       <c r="F185" t="s">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>-10.1112107456433</v>
+        <v>10.1112107456433</v>
       </c>
       <c r="F186" t="s">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>-5.5048447569270902</v>
+        <v>5.5048447569270902</v>
       </c>
       <c r="F187" t="s">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>-2.5172952994233899</v>
+        <v>2.5172952994233899</v>
       </c>
       <c r="F188" t="s">
         <v>0</v>
@@ -5288,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>-0.93412817071983401</v>
+        <v>0.93412817071983401</v>
       </c>
       <c r="F189" t="s">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>-0.49107897529838401</v>
+        <v>0.49107897529838401</v>
       </c>
       <c r="F190" t="s">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>-0.88212554121834197</v>
+        <v>0.88212554121834197</v>
       </c>
       <c r="F191" t="s">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>-1.60093981574896</v>
+        <v>1.60093981574896</v>
       </c>
       <c r="F192" t="s">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>-2.4228921873999401</v>
+        <v>2.4228921873999401</v>
       </c>
       <c r="F193" t="s">
         <v>0</v>
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>-2.97518795927909</v>
+        <v>2.97518795927909</v>
       </c>
       <c r="F194" t="s">
         <v>0</v>
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>-3.1686674031402799</v>
+        <v>3.1686674031402799</v>
       </c>
       <c r="F195" t="s">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>-2.97518795927909</v>
+        <v>2.97518795927909</v>
       </c>
       <c r="F196" t="s">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>-2.5001542341888099</v>
+        <v>2.5001542341888099</v>
       </c>
       <c r="F197" t="s">
         <v>0</v>
@@ -5522,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>-2.0310204332858199</v>
+        <v>2.0310204332858199</v>
       </c>
       <c r="F198" t="s">
         <v>0</v>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>-1.71648647960955</v>
+        <v>1.71648647960955</v>
       </c>
       <c r="F199" t="s">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>-1.6394469133671901</v>
+        <v>1.6394469133671901</v>
       </c>
       <c r="F200" t="s">
         <v>0</v>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>-1.6842320180113599</v>
+        <v>1.6842320180113599</v>
       </c>
       <c r="F201" t="s">
         <v>0</v>
@@ -5626,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>-1.6842320180113599</v>
+        <v>1.6842320180113599</v>
       </c>
       <c r="F202" t="s">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>-1.7289667671464399</v>
+        <v>1.7289667671464399</v>
       </c>
       <c r="F203" t="s">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>-1.7351943474465701</v>
+        <v>1.7351943474465701</v>
       </c>
       <c r="F204" t="s">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>-1.70299019029806</v>
+        <v>1.70299019029806</v>
       </c>
       <c r="F205" t="s">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>-1.70299019029806</v>
+        <v>1.70299019029806</v>
       </c>
       <c r="F206" t="s">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>-1.74141357437406</v>
+        <v>1.74141357437406</v>
       </c>
       <c r="F207" t="s">
         <v>0</v>
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>-1.74141357437406</v>
+        <v>1.74141357437406</v>
       </c>
       <c r="F208" t="s">
         <v>0</v>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>-1.70299019029806</v>
+        <v>1.70299019029806</v>
       </c>
       <c r="F209" t="s">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>-1.6645751747739199</v>
+        <v>1.6645751747739199</v>
       </c>
       <c r="F210" t="s">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>-1.6261685595938999</v>
+        <v>1.6261685595938999</v>
       </c>
       <c r="F211" t="s">
         <v>0</v>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>-1.5493806572145601</v>
+        <v>1.5493806572145601</v>
       </c>
       <c r="F212" t="s">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>-1.5493806572145601</v>
+        <v>1.5493806572145601</v>
       </c>
       <c r="F213" t="s">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>-1.5430360663734899</v>
+        <v>1.5430360663734899</v>
       </c>
       <c r="F214" t="s">
         <v>0</v>
@@ -5964,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>-1.5493806572145601</v>
+        <v>1.5493806572145601</v>
       </c>
       <c r="F215" t="s">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>-1.58145082479735</v>
+        <v>1.58145082479735</v>
       </c>
       <c r="F216" t="s">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>-1.6198740639009299</v>
+        <v>1.6198740639009299</v>
       </c>
       <c r="F217" t="s">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>-1.58145082479734</v>
+        <v>1.58145082479734</v>
       </c>
       <c r="F218" t="s">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>-1.58145082479734</v>
+        <v>1.58145082479734</v>
       </c>
       <c r="F219" t="s">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>-1.58145082479734</v>
+        <v>1.58145082479734</v>
       </c>
       <c r="F220" t="s">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>-1.58145082479734</v>
+        <v>1.58145082479734</v>
       </c>
       <c r="F221" t="s">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>-1.5430360663735001</v>
+        <v>1.5430360663735001</v>
       </c>
       <c r="F222" t="s">
         <v>0</v>
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>-1.5046298203470301</v>
+        <v>1.5046298203470301</v>
       </c>
       <c r="F223" t="s">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>-1.5430360663735001</v>
+        <v>1.5430360663735001</v>
       </c>
       <c r="F224" t="s">
         <v>0</v>
@@ -6224,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>-1.5046298203470301</v>
+        <v>1.5046298203470301</v>
       </c>
       <c r="F225" t="s">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>-1.51099943337871</v>
+        <v>1.51099943337871</v>
       </c>
       <c r="F226" t="s">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>-1.5046298203470301</v>
+        <v>1.5046298203470301</v>
       </c>
       <c r="F227" t="s">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>-1.4662321183909499</v>
+        <v>1.4662321183909499</v>
       </c>
       <c r="F228" t="s">
         <v>0</v>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>-1.4278429921334601</v>
+        <v>1.4278429921334601</v>
       </c>
       <c r="F229" t="s">
         <v>0</v>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>-1.38946247315786</v>
+        <v>1.38946247315786</v>
       </c>
       <c r="F230" t="s">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>-1.35109059300237</v>
+        <v>1.35109059300237</v>
       </c>
       <c r="F231" t="s">
         <v>0</v>
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>-1.35109059300237</v>
+        <v>1.35109059300237</v>
       </c>
       <c r="F232" t="s">
         <v>0</v>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>-1.3062242135553701</v>
+        <v>1.3062242135553701</v>
       </c>
       <c r="F233" t="s">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>-1.3127273831600099</v>
+        <v>1.3127273831600099</v>
       </c>
       <c r="F234" t="s">
         <v>0</v>
@@ -6484,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>-1.3062242135553599</v>
+        <v>1.3062242135553599</v>
       </c>
       <c r="F235" t="s">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>-1.2743728750785199</v>
+        <v>1.2743728750785199</v>
       </c>
       <c r="F236" t="s">
         <v>0</v>
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>-1.2294740464838401</v>
+        <v>1.2294740464838401</v>
       </c>
       <c r="F237" t="s">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <v>-1.1911121201913499</v>
+        <v>1.1911121201913499</v>
       </c>
       <c r="F238" t="s">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <v>-1.1527590072334799</v>
+        <v>1.1527590072334799</v>
       </c>
       <c r="F239" t="s">
         <v>0</v>
@@ -6614,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>-1.0694178273923001</v>
+        <v>1.0694178273923001</v>
       </c>
       <c r="F240" t="s">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="E241">
-        <v>-1.0310664654635</v>
+        <v>1.0310664654635</v>
       </c>
       <c r="F241" t="s">
         <v>0</v>
@@ -6666,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="E242">
-        <v>-0.98600381749781396</v>
+        <v>0.98600381749781396</v>
       </c>
       <c r="F242" t="s">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>-0.95439064116269601</v>
+        <v>0.95439064116269601</v>
       </c>
       <c r="F243" t="s">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="E244">
-        <v>-0.87095608558868198</v>
+        <v>0.87095608558868198</v>
       </c>
       <c r="F244" t="s">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="E245">
-        <v>-0.83262499744474505</v>
+        <v>0.83262499744474505</v>
       </c>
       <c r="F245" t="s">
         <v>0</v>
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="E246">
-        <v>-0.79430303902089106</v>
+        <v>0.79430303902089106</v>
       </c>
       <c r="F246" t="s">
         <v>0</v>
@@ -6796,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="E247">
-        <v>-0.79430303902089106</v>
+        <v>0.79430303902089106</v>
       </c>
       <c r="F247" t="s">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="E248">
-        <v>-0.71078344336765997</v>
+        <v>0.71078344336765997</v>
       </c>
       <c r="F248" t="s">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="E249">
-        <v>-0.71078344336765997</v>
+        <v>0.71078344336765997</v>
       </c>
       <c r="F249" t="s">
         <v>0</v>
@@ -6874,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="E250">
-        <v>-0.64110712207563103</v>
+        <v>0.64110712207563103</v>
       </c>
       <c r="F250" t="s">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <v>-0.59585381049478103</v>
+        <v>0.59585381049478103</v>
       </c>
       <c r="F251" t="s">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="E252">
-        <v>-0.55756255888247397</v>
+        <v>0.55756255888247397</v>
       </c>
       <c r="F252" t="s">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="E253">
-        <v>-0.51928067161748404</v>
+        <v>0.51928067161748404</v>
       </c>
       <c r="F253" t="s">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="E254">
-        <v>-0.48100817943192498</v>
+        <v>0.48100817943192498</v>
       </c>
       <c r="F254" t="s">
         <v>0</v>
@@ -7004,7 +7004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="E255">
-        <v>-0.48100817943192498</v>
+        <v>0.48100817943192498</v>
       </c>
       <c r="F255" t="s">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="E256">
-        <v>-0.44274511300930702</v>
+        <v>0.44274511300930702</v>
       </c>
       <c r="F256" t="s">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <v>-0.40449150298439202</v>
+        <v>0.40449150298439202</v>
       </c>
       <c r="F257" t="s">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="E258">
-        <v>-0.40449150298439202</v>
+        <v>0.40449150298439202</v>
       </c>
       <c r="F258" t="s">
         <v>0</v>
@@ -7108,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="E259">
-        <v>-0.36624737994307699</v>
+        <v>0.36624737994307699</v>
       </c>
       <c r="F259" t="s">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="E260">
-        <v>-0.36624737994307699</v>
+        <v>0.36624737994307699</v>
       </c>
       <c r="F260" t="s">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="E261">
-        <v>-0.328012774422277</v>
+        <v>0.328012774422277</v>
       </c>
       <c r="F261" t="s">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="E262">
-        <v>-0.28978771690980099</v>
+        <v>0.28978771690980099</v>
       </c>
       <c r="F262" t="s">
         <v>0</v>
@@ -7212,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="E263">
-        <v>-0.25157223784424299</v>
+        <v>0.25157223784424299</v>
       </c>
       <c r="F263" t="s">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="E264">
-        <v>-0.25157223784424199</v>
+        <v>0.25157223784424199</v>
       </c>
       <c r="F264" t="s">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="E265">
-        <v>-0.17517013656140501</v>
+        <v>0.17517013656140501</v>
       </c>
       <c r="F265" t="s">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="E266">
-        <v>-0.175170136561412</v>
+        <v>0.175170136561412</v>
       </c>
       <c r="F266" t="s">
         <v>0</v>
@@ -7316,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="E267">
-        <v>-0.13698357497413</v>
+        <v>0.13698357497413</v>
       </c>
       <c r="F267" t="s">
         <v>0</v>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="E268">
-        <v>-9.8806713093520002E-2</v>
+        <v>9.8806713093520002E-2</v>
       </c>
       <c r="F268" t="s">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="E269">
-        <v>-9.1499604232696499E-2</v>
+        <v>9.1499604232696499E-2</v>
       </c>
       <c r="F269" t="s">
         <v>0</v>
@@ -7394,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="E270">
-        <v>-2.2482209165206199E-2</v>
+        <v>2.2482209165206199E-2</v>
       </c>
       <c r="F270" t="s">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="E271">
-        <v>2.30459416899471E-2</v>
+        <v>-2.30459416899471E-2</v>
       </c>
       <c r="F271" t="s">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="E272">
-        <v>6.1208151346887597E-2</v>
+        <v>-6.1208151346887597E-2</v>
       </c>
       <c r="F272" t="s">
         <v>0</v>
@@ -7472,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="E273">
-        <v>9.9360491398614997E-2</v>
+        <v>-9.9360491398614997E-2</v>
       </c>
       <c r="F273" t="s">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E274">
-        <v>0.137502931852923</v>
+        <v>-0.137502931852923</v>
       </c>
       <c r="F274" t="s">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>0.17563544276828399</v>
+        <v>-0.17563544276828399</v>
       </c>
       <c r="F275" t="s">
         <v>0</v>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="E276">
-        <v>0.183123646404454</v>
+        <v>-0.183123646404454</v>
       </c>
       <c r="F276" t="s">
         <v>0</v>
@@ -7576,7 +7576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="E277">
-        <v>0.22127059764530399</v>
+        <v>-0.22127059764530399</v>
       </c>
       <c r="F277" t="s">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>0.25940753991195598</v>
+        <v>-0.25940753991195598</v>
       </c>
       <c r="F278" t="s">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="E279">
-        <v>0.29753444336378498</v>
+        <v>-0.29753444336378498</v>
       </c>
       <c r="F279" t="s">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>0.29753444336378498</v>
+        <v>-0.29753444336378498</v>
       </c>
       <c r="F280" t="s">
         <v>0</v>
@@ -7680,7 +7680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>0.33565127821143298</v>
+        <v>-0.33565127821143298</v>
       </c>
       <c r="F281" t="s">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="E282">
-        <v>0.34324706078468897</v>
+        <v>-0.34324706078468897</v>
       </c>
       <c r="F282" t="s">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="E283">
-        <v>0.37375801471692499</v>
+        <v>-0.37375801471692499</v>
       </c>
       <c r="F283" t="s">
         <v>0</v>
@@ -7758,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>0.38137814760365002</v>
+        <v>-0.38137814760365002</v>
       </c>
       <c r="F284" t="s">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>0.38137814760365002</v>
+        <v>-0.38137814760365002</v>
       </c>
       <c r="F285" t="s">
         <v>0</v>
@@ -7810,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>0.38137814760365002</v>
+        <v>-0.38137814760365002</v>
       </c>
       <c r="F286" t="s">
         <v>0</v>
@@ -7836,7 +7836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="E287">
-        <v>0.38137814760365002</v>
+        <v>-0.38137814760365002</v>
       </c>
       <c r="F287" t="s">
         <v>0</v>
@@ -7862,7 +7862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="E288">
-        <v>0.38137814760365002</v>
+        <v>-0.38137814760365002</v>
       </c>
       <c r="F288" t="s">
         <v>0</v>
@@ -7888,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="E289">
-        <v>0.34324706078468598</v>
+        <v>-0.34324706078468598</v>
       </c>
       <c r="F289" t="s">
         <v>0</v>
@@ -7915,10 +7915,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H1" r:id="rId1" xr:uid="{13F8106B-F3ED-0642-A519-5DCD5D58975D}"/>
-    <hyperlink ref="H2:H289" r:id="rId2" display="\\" xr:uid="{45CA5441-1C62-0243-A2ED-B97DFE8115BB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>